--- a/src/main/java/utility/paymentSystem.xlsx
+++ b/src/main/java/utility/paymentSystem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\project3ds\src\main\java\utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FDA04D-5D8B-4D71-8378-B60EB682116D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82583B7-E492-45F7-8CE5-AA563DAC1572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{45866001-2720-4337-AB07-374A954DBF9B}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ps_list!$A$1:$F$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet5!$A$1:$U$1484</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5314" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5312" uniqueCount="443">
   <si>
     <t>aps_id</t>
   </si>
@@ -1499,17 +1500,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1852,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD1AF7D-9F41-4393-B584-5E810605A977}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1862,7 +1853,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1879,7 +1870,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>132</v>
       </c>
@@ -1898,7 +1889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>48</v>
       </c>
@@ -1917,7 +1908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>222</v>
       </c>
@@ -1936,7 +1927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>172</v>
       </c>
@@ -1955,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>223</v>
       </c>
@@ -1974,7 +1965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1993,7 +1984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>200</v>
       </c>
@@ -2011,11 +2002,8 @@
       <c r="E8">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>182</v>
       </c>
@@ -2034,7 +2022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>224</v>
       </c>
@@ -2053,7 +2041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>167</v>
       </c>
@@ -2072,7 +2060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>201</v>
       </c>
@@ -2091,7 +2079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>183</v>
       </c>
@@ -2110,7 +2098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>101</v>
       </c>
@@ -2129,7 +2117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>145</v>
       </c>
@@ -2148,7 +2136,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>276</v>
       </c>
@@ -3654,9 +3642,6 @@
       <c r="E94">
         <v>15</v>
       </c>
-      <c r="F94" t="s">
-        <v>442</v>
-      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
@@ -4351,6 +4336,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F131" xr:uid="{384D2D94-1ED2-43FD-9751-1DC4F5802862}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4360,8 +4346,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U1484"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1032" sqref="A1:U1032"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156:XFD156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -102828,7 +102814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF75AB2-1675-40C6-8D6B-3F82FC36C926}">
   <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
